--- a/EVOLUTIVO LIQUIDACION INGRESOS POR SERVICIO/Propuesta Nuevo informe Liquidacion Servicios (Autoguardado).xlsx
+++ b/EVOLUTIVO LIQUIDACION INGRESOS POR SERVICIO/Propuesta Nuevo informe Liquidacion Servicios (Autoguardado).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inycom-my.sharepoint.com/personal/a3446_inycom_es/Documents/repositorio/TAREAS/EVOLUTIVO LIQUIDACION INGRESOS POR SERVICIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C54D8D061C579657CEA56E431E9422870EE56A18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621BCF6D-F8F5-49E3-ADBD-CF3A0BB9C003}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C54D8D061C579657CEA56E431E9422870EE56A18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E386A2-083E-47D5-B0E9-11B2FBA64FB2}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cabecera Liq Ingresos Servicios" sheetId="1" r:id="rId1"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
